--- a/파이썬/코딩교실 매크로/1.코딩교실준비/4.줌링크생성/줌링크생성.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/4.줌링크생성/줌링크생성.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\4.줌링크생성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\4.줌링크생성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFCB22D-C21B-435E-8C00-151D481B717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0155A916-74A4-495E-ABEC-A730353FC289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29055" windowHeight="19410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>이름</t>
   </si>
@@ -52,6 +52,9 @@
     <t>jhyun2377@naver.com</t>
   </si>
   <si>
+    <t>817217</t>
+  </si>
+  <si>
     <t>아이디</t>
   </si>
   <si>
@@ -67,6 +70,12 @@
     <t>hj217000@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/86216732745?pwd=jHKOUsRdFBMYJJhmdXTWaFBZMiYpaU.1</t>
+  </si>
+  <si>
+    <t>613643</t>
+  </si>
+  <si>
     <t>비번</t>
   </si>
   <si>
@@ -82,6 +91,12 @@
     <t>suneui0603@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/84326384406?pwd=PDsY83woY4zVfz7L33RttwE6OZpoDW.1</t>
+  </si>
+  <si>
+    <t>136665</t>
+  </si>
+  <si>
     <t>사용자 관리 링크</t>
   </si>
   <si>
@@ -97,6 +112,12 @@
     <t>imj85715@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/87300748246?pwd=jRbuZpaPfVNpWHmiuArB5ix8Dl82Mb.1</t>
+  </si>
+  <si>
+    <t>834172</t>
+  </si>
+  <si>
     <t>사업명</t>
   </si>
   <si>
@@ -112,6 +133,12 @@
     <t>ddalgio91@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/83028332977?pwd=P4sNZgq0oery7qdQZwFdgRCXScpFsd.1</t>
+  </si>
+  <si>
+    <t>547018</t>
+  </si>
+  <si>
     <t>김태영</t>
   </si>
   <si>
@@ -121,6 +148,12 @@
     <t>pescety@naver.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/86196879304?pwd=seaVbxv9gLpFZy7Ro7kQFuN7OGGba9.1</t>
+  </si>
+  <si>
+    <t>585782</t>
+  </si>
+  <si>
     <t>한영옥</t>
   </si>
   <si>
@@ -130,6 +163,12 @@
     <t>blue7836@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/84024077408?pwd=fNZK5GIklhQymIb7XvUNg4JteP6qrR.1</t>
+  </si>
+  <si>
+    <t>383624</t>
+  </si>
+  <si>
     <t>양영선</t>
   </si>
   <si>
@@ -139,6 +178,12 @@
     <t>checillia@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/82952858931?pwd=Xqv0u7mG7tvaYh23Zw1UE2DVglqaw7.1</t>
+  </si>
+  <si>
+    <t>032233</t>
+  </si>
+  <si>
     <t>정성욱</t>
   </si>
   <si>
@@ -148,6 +193,12 @@
     <t>swjeong32@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/82682113467?pwd=iqmB7rZ8Qjj1tFwLMYTs1uxp1t2uvq.1</t>
+  </si>
+  <si>
+    <t>103562</t>
+  </si>
+  <si>
     <t>최정윤</t>
   </si>
   <si>
@@ -157,6 +208,12 @@
     <t>djcyj486@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/87969718408?pwd=8VPwoze6vf8gWymKip8ctKku0tUW2M.1</t>
+  </si>
+  <si>
+    <t>717636</t>
+  </si>
+  <si>
     <t>강향균</t>
   </si>
   <si>
@@ -166,6 +223,12 @@
     <t>317hyang@naver.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/84391366905?pwd=h2E83CCsJjKJJKaVjPPDGRxF98RRMd.1</t>
+  </si>
+  <si>
+    <t>077890</t>
+  </si>
+  <si>
     <t>황인미</t>
   </si>
   <si>
@@ -175,6 +238,12 @@
     <t>ytuaeb77@gmail.com</t>
   </si>
   <si>
+    <t>https://us02web.zoom.us/j/83626899255?pwd=RAUmHXmYsIUJ9shAsrPRIrQHb6SxRQ.1</t>
+  </si>
+  <si>
+    <t>526494</t>
+  </si>
+  <si>
     <t>김화경</t>
   </si>
   <si>
@@ -182,6 +251,16 @@
   </si>
   <si>
     <t>yhkkimi@naver.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/88264916666?pwd=xGm6hcb5LYt4QzCcaexbONzOzQZasj.1</t>
+  </si>
+  <si>
+    <t>706237</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/5448448250?pwd=M3lSU0F2am9EUWc0WWZlMG9vdjNWQT09&amp;omn=84362952806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -321,8 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -643,22 +722,22 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" style="1" customWidth="1"/>
     <col min="4" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="18" max="23" width="9" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -681,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -691,200 +770,252 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F2"/>
       <c r="P2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F3"/>
       <c r="P3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F4"/>
       <c r="P4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F5"/>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="F14"/>
     </row>
   </sheetData>
@@ -892,6 +1023,7 @@
   <hyperlinks>
     <hyperlink ref="Q1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{83991303-AE88-4DDC-AFA3-4A28809469DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/4.줌링크생성/줌링크생성.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/4.줌링크생성/줌링크생성.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\4.줌링크생성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\4.줌링크생성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0155A916-74A4-495E-ABEC-A730353FC289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC80A8-00A9-4E77-B75B-73B1B4BF0104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="1665" windowWidth="26055" windowHeight="19215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>이름</t>
   </si>
@@ -43,16 +43,19 @@
     <t>https://us02web.zoom.us/signin</t>
   </si>
   <si>
-    <t>이지현</t>
-  </si>
-  <si>
-    <t>GM_MW_01</t>
-  </si>
-  <si>
-    <t>jhyun2377@naver.com</t>
-  </si>
-  <si>
-    <t>817217</t>
+    <t>강성희</t>
+  </si>
+  <si>
+    <t>PH_MW_01</t>
+  </si>
+  <si>
+    <t>sunghee3220@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87342936339?pwd=j5lJ696Wq4Q7PAscYfMaNFf5CBjaaB.1</t>
+  </si>
+  <si>
+    <t>512755</t>
   </si>
   <si>
     <t>아이디</t>
@@ -61,19 +64,19 @@
     <t>pds0335@hanmail.net</t>
   </si>
   <si>
-    <t>박현주</t>
-  </si>
-  <si>
-    <t>GM_MW_02</t>
-  </si>
-  <si>
-    <t>hj217000@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86216732745?pwd=jHKOUsRdFBMYJJhmdXTWaFBZMiYpaU.1</t>
-  </si>
-  <si>
-    <t>613643</t>
+    <t>곽미영</t>
+  </si>
+  <si>
+    <t>PH_MW_02</t>
+  </si>
+  <si>
+    <t>kwakmiyoung@hanmail.net</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83351171396?pwd=4szivKLkBWL6hV9CU3ssBmYb9HePyF.1</t>
+  </si>
+  <si>
+    <t>537186</t>
   </si>
   <si>
     <t>비번</t>
@@ -82,19 +85,19 @@
     <t>Enoz7223</t>
   </si>
   <si>
-    <t>김선의</t>
-  </si>
-  <si>
-    <t>GM_MW_03</t>
-  </si>
-  <si>
-    <t>suneui0603@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84326384406?pwd=PDsY83woY4zVfz7L33RttwE6OZpoDW.1</t>
-  </si>
-  <si>
-    <t>136665</t>
+    <t>김경진</t>
+  </si>
+  <si>
+    <t>PH_MW_03</t>
+  </si>
+  <si>
+    <t>kkj4299@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86756956757?pwd=XUxYcrH5dKKcf9gm4w3Urotj8U7pME.1</t>
+  </si>
+  <si>
+    <t>939889</t>
   </si>
   <si>
     <t>사용자 관리 링크</t>
@@ -103,164 +106,340 @@
     <t>https://us02web.zoom.us/account/user?ampDeviceId#/</t>
   </si>
   <si>
-    <t>임정희</t>
-  </si>
-  <si>
-    <t>GM_MW_04</t>
-  </si>
-  <si>
-    <t>imj85715@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87300748246?pwd=jRbuZpaPfVNpWHmiuArB5ix8Dl82Mb.1</t>
-  </si>
-  <si>
-    <t>834172</t>
+    <t>김미영(서울)</t>
+  </si>
+  <si>
+    <t>PH_MW_04</t>
+  </si>
+  <si>
+    <t>kmy3160@naver.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82880573740?pwd=UkzQSyzicU40weW1bwZWJQfdZMa96w.1</t>
+  </si>
+  <si>
+    <t>034864</t>
   </si>
   <si>
     <t>사업명</t>
   </si>
   <si>
-    <t>2025 구미시 코딩&amp;메이커 교실</t>
-  </si>
-  <si>
-    <t>박지윤</t>
-  </si>
-  <si>
-    <t>GM_MW_05</t>
-  </si>
-  <si>
-    <t>ddalgio91@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83028332977?pwd=P4sNZgq0oery7qdQZwFdgRCXScpFsd.1</t>
-  </si>
-  <si>
-    <t>547018</t>
-  </si>
-  <si>
-    <t>김태영</t>
-  </si>
-  <si>
-    <t>GM_MW_06</t>
-  </si>
-  <si>
-    <t>pescety@naver.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86196879304?pwd=seaVbxv9gLpFZy7Ro7kQFuN7OGGba9.1</t>
-  </si>
-  <si>
-    <t>585782</t>
-  </si>
-  <si>
-    <t>한영옥</t>
-  </si>
-  <si>
-    <t>GM_MW_07</t>
-  </si>
-  <si>
-    <t>blue7836@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84024077408?pwd=fNZK5GIklhQymIb7XvUNg4JteP6qrR.1</t>
-  </si>
-  <si>
-    <t>383624</t>
-  </si>
-  <si>
-    <t>양영선</t>
-  </si>
-  <si>
-    <t>GM_MW_08</t>
-  </si>
-  <si>
-    <t>checillia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82952858931?pwd=Xqv0u7mG7tvaYh23Zw1UE2DVglqaw7.1</t>
-  </si>
-  <si>
-    <t>032233</t>
-  </si>
-  <si>
-    <t>정성욱</t>
-  </si>
-  <si>
-    <t>GM_MW_09</t>
-  </si>
-  <si>
-    <t>swjeong32@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82682113467?pwd=iqmB7rZ8Qjj1tFwLMYTs1uxp1t2uvq.1</t>
-  </si>
-  <si>
-    <t>103562</t>
-  </si>
-  <si>
-    <t>최정윤</t>
-  </si>
-  <si>
-    <t>GM_MW_10</t>
-  </si>
-  <si>
-    <t>djcyj486@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87969718408?pwd=8VPwoze6vf8gWymKip8ctKku0tUW2M.1</t>
-  </si>
-  <si>
-    <t>717636</t>
-  </si>
-  <si>
-    <t>강향균</t>
-  </si>
-  <si>
-    <t>GM_MW_11</t>
-  </si>
-  <si>
-    <t>317hyang@naver.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84391366905?pwd=h2E83CCsJjKJJKaVjPPDGRxF98RRMd.1</t>
-  </si>
-  <si>
-    <t>077890</t>
-  </si>
-  <si>
-    <t>황인미</t>
-  </si>
-  <si>
-    <t>GM_TT_12</t>
-  </si>
-  <si>
-    <t>ytuaeb77@gmail.com</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83626899255?pwd=RAUmHXmYsIUJ9shAsrPRIrQHb6SxRQ.1</t>
-  </si>
-  <si>
-    <t>526494</t>
+    <t>2025 포항시SW화상코딩교육 2기</t>
   </si>
   <si>
     <t>김화경</t>
   </si>
   <si>
-    <t>GM_TT_13</t>
+    <t>PH_MW_05</t>
   </si>
   <si>
     <t>yhkkimi@naver.com</t>
   </si>
   <si>
-    <t>https://us02web.zoom.us/j/88264916666?pwd=xGm6hcb5LYt4QzCcaexbONzOzQZasj.1</t>
+    <t>https://us02web.zoom.us/j/88507102943?pwd=2tzmvxScNF6MJdyQAG3eAFe8QLvXSc.1</t>
   </si>
   <si>
     <t>706237</t>
   </si>
   <si>
-    <t>https://us02web.zoom.us/j/5448448250?pwd=M3lSU0F2am9EUWc0WWZlMG9vdjNWQT09&amp;omn=84362952806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>박은하</t>
+  </si>
+  <si>
+    <t>PH_MW_06</t>
+  </si>
+  <si>
+    <t>gjnpkm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83190957615?pwd=UTAqtqFMwyontADOcBdefmW9og0JkU.1</t>
+  </si>
+  <si>
+    <t>540005</t>
+  </si>
+  <si>
+    <t>이선옥</t>
+  </si>
+  <si>
+    <t>PH_MW_07</t>
+  </si>
+  <si>
+    <t>jinifriend7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83102172459?pwd=42gLqycPbOrBbGRnZDJ4HbbinvExB1.1</t>
+  </si>
+  <si>
+    <t>783727</t>
+  </si>
+  <si>
+    <t>이연경</t>
+  </si>
+  <si>
+    <t>PH_MW_08</t>
+  </si>
+  <si>
+    <t>soview@naver.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81897751774?pwd=xTpG5iya3V4hVlmq1JuVLz71CmQ3QP.1</t>
+  </si>
+  <si>
+    <t>081429</t>
+  </si>
+  <si>
+    <t>장재복</t>
+  </si>
+  <si>
+    <t>PH_MW_09</t>
+  </si>
+  <si>
+    <t>jbjang16@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/85659071763?pwd=oQEvn0PZSbauCZbDbL9ohzoUFvROYM.1</t>
+  </si>
+  <si>
+    <t>936009</t>
+  </si>
+  <si>
+    <t>강혜진</t>
+  </si>
+  <si>
+    <t>PH_MW_10</t>
+  </si>
+  <si>
+    <t>lovealpine0373@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84861513697?pwd=rcaFnPbybhatFQGPTmPgbEOCSVV68G.1</t>
+  </si>
+  <si>
+    <t>674894</t>
+  </si>
+  <si>
+    <t>김민채</t>
+  </si>
+  <si>
+    <t>PH_MW_11</t>
+  </si>
+  <si>
+    <t>wwmww70@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87073898364?pwd=HErAVK9SjhDXrXmWMwkK2cXwOSasDN.1</t>
+  </si>
+  <si>
+    <t>830304</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>PH_MW_12</t>
+  </si>
+  <si>
+    <t>1775sujin@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81981428857?pwd=C0pVp5klexQmQiXo8lx8clHX68sOR5.1</t>
+  </si>
+  <si>
+    <t>178111</t>
+  </si>
+  <si>
+    <t>김숙희</t>
+  </si>
+  <si>
+    <t>PH_MW_13</t>
+  </si>
+  <si>
+    <t>jesusshkim@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83059829359?pwd=UJKTWREebBz7QRPpFtOfBoaGfb3r6C.1</t>
+  </si>
+  <si>
+    <t>197641</t>
+  </si>
+  <si>
+    <t>류은숙</t>
+  </si>
+  <si>
+    <t>PH_MW_14</t>
+  </si>
+  <si>
+    <t>eunsukryu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82884109772?pwd=MXm4wX1ewWFiqgFnu6bW9cLQkMEQ74.1</t>
+  </si>
+  <si>
+    <t>305366</t>
+  </si>
+  <si>
+    <t>박온순</t>
+  </si>
+  <si>
+    <t>PH_MW_15</t>
+  </si>
+  <si>
+    <t>onsoon43@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83659189857?pwd=40uasQmkbufOcLVkXbV0F788bZr2Kj.1</t>
+  </si>
+  <si>
+    <t>366762</t>
+  </si>
+  <si>
+    <t>이미선</t>
+  </si>
+  <si>
+    <t>PH_MW_16</t>
+  </si>
+  <si>
+    <t>baesmi820211@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84530014341?pwd=amrU83GrjtzYI9HbfjgFaXFAlsZTKz.1</t>
+  </si>
+  <si>
+    <t>219476</t>
+  </si>
+  <si>
+    <t>이성미</t>
+  </si>
+  <si>
+    <t>PH_MW_17</t>
+  </si>
+  <si>
+    <t>laudodeum@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84472622775?pwd=jaOvmFZ7PX7xvHvaxnar1MapxFooXy.1</t>
+  </si>
+  <si>
+    <t>106188</t>
+  </si>
+  <si>
+    <t>이은미</t>
+  </si>
+  <si>
+    <t>PH_MW_18</t>
+  </si>
+  <si>
+    <t>leeeunmie090909@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87015890570?pwd=07AICnsosHgbnVlFaE4pnlaXAPHiGZ.1</t>
+  </si>
+  <si>
+    <t>507747</t>
+  </si>
+  <si>
+    <t>이은정(김해)</t>
+  </si>
+  <si>
+    <t>PH_MW_19</t>
+  </si>
+  <si>
+    <t>zjarytlf1255@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82760048295?pwd=PvXiMjdtWGT73CzV0fUWb50nQQtJec.1</t>
+  </si>
+  <si>
+    <t>484098</t>
+  </si>
+  <si>
+    <t>이은정(대구)</t>
+  </si>
+  <si>
+    <t>PH_MW_20</t>
+  </si>
+  <si>
+    <t>cherryamore01@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89737385695?pwd=Kqm8YDunVXFFiRuYZazEdAq8BAtwmN.1</t>
+  </si>
+  <si>
+    <t>844975</t>
+  </si>
+  <si>
+    <t>이주</t>
+  </si>
+  <si>
+    <t>PH_MW_21</t>
+  </si>
+  <si>
+    <t>juli73429@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/85798481182?pwd=YJWA3u3i0i6Matw1ZREVu4ycQos5Uy.1</t>
+  </si>
+  <si>
+    <t>186173</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>PH_MW_22</t>
+  </si>
+  <si>
+    <t>jjuyalov@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81264530818?pwd=Au6SKcVPhbuha6HWPYVfbhPVhKwpYY.1</t>
+  </si>
+  <si>
+    <t>991429</t>
+  </si>
+  <si>
+    <t>장미</t>
+  </si>
+  <si>
+    <t>PH_MW_23</t>
+  </si>
+  <si>
+    <t>sdmymy0606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89931577228?pwd=YbkTfeQMuoGa7XKqdKOaCIrcohCzwu.1</t>
+  </si>
+  <si>
+    <t>842045</t>
+  </si>
+  <si>
+    <t>장진석</t>
+  </si>
+  <si>
+    <t>PH_MW_24</t>
+  </si>
+  <si>
+    <t>commjs77@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82927418982?pwd=OmsDie3tb6x6FqaqENB6BRKW4yj1nZ.1</t>
+  </si>
+  <si>
+    <t>624738</t>
+  </si>
+  <si>
+    <t>황수리</t>
+  </si>
+  <si>
+    <t>PH_MW_25</t>
+  </si>
+  <si>
+    <t>surihwang74@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89786254264?pwd=0a1q4FGOmGnUIXAiQVyao4ox2n2V72.1</t>
+  </si>
+  <si>
+    <t>739556</t>
   </si>
 </sst>
 </file>
@@ -385,23 +564,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -719,38 +898,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.09765625" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
+    <col min="6" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="18" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -760,271 +941,475 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F2"/>
       <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F3"/>
       <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F4"/>
       <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F5"/>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="E13" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{83991303-AE88-4DDC-AFA3-4A28809469DC}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>